--- a/data/case1/18/details_13.xlsx
+++ b/data/case1/18/details_13.xlsx
@@ -61,15 +61,15 @@
     <col min="3" max="3" width="3.140625" customWidth="true"/>
     <col min="4" max="4" width="3.140625" customWidth="true"/>
     <col min="5" max="5" width="3.140625" customWidth="true"/>
-    <col min="6" max="6" width="2.140625" customWidth="true"/>
+    <col min="6" max="6" width="3.140625" customWidth="true"/>
     <col min="7" max="7" width="3.140625" customWidth="true"/>
-    <col min="8" max="8" width="2.140625" customWidth="true"/>
-    <col min="9" max="9" width="3.140625" customWidth="true"/>
-    <col min="10" max="10" width="2.140625" customWidth="true"/>
-    <col min="11" max="11" width="3.140625" customWidth="true"/>
-    <col min="12" max="12" width="3.140625" customWidth="true"/>
+    <col min="8" max="8" width="3.140625" customWidth="true"/>
+    <col min="9" max="9" width="2.140625" customWidth="true"/>
+    <col min="10" max="10" width="3.140625" customWidth="true"/>
+    <col min="11" max="11" width="5.7109375" customWidth="true"/>
+    <col min="12" max="12" width="5.7109375" customWidth="true"/>
     <col min="13" max="13" width="5.7109375" customWidth="true"/>
-    <col min="14" max="14" width="4.7109375" customWidth="true"/>
+    <col min="14" max="14" width="5.7109375" customWidth="true"/>
     <col min="15" max="15" width="5.7109375" customWidth="true"/>
     <col min="16" max="16" width="5.7109375" customWidth="true"/>
     <col min="17" max="17" width="5.7109375" customWidth="true"/>
@@ -77,46 +77,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="0">
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G1" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J1" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K1" s="0">
-        <v>18</v>
+        <v>0.041999999999999996</v>
       </c>
       <c r="L1" s="0">
-        <v>16</v>
+        <v>0.096000000000000002</v>
       </c>
       <c r="M1" s="0">
-        <v>0.045999999999999999</v>
+        <v>0.0019999999999999948</v>
       </c>
       <c r="N1" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.088999999999999996</v>
       </c>
       <c r="O1" s="0">
         <v>0.025999999999999999</v>
